--- a/src/assets/fxsj_mb/sjfxtb_b11_sysx.xlsx
+++ b/src/assets/fxsj_mb/sjfxtb_b11_sysx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>年度</t>
   </si>
@@ -33,6 +33,10 @@
   <si>
     <t>使用率
 应完成人次</t>
+  </si>
+  <si>
+    <t>使用率
+实际完成人次</t>
   </si>
   <si>
     <t>杨浦分校</t>
@@ -71,8 +75,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -98,6 +102,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -106,8 +138,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,122 +238,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,37 +255,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,55 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,85 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +464,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -471,15 +484,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,20 +505,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,6 +523,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,8 +556,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,145 +569,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,7 +1055,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1084,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:7">
@@ -1095,19 +1099,19 @@
         <v>31030</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:7">
@@ -1118,19 +1122,19 @@
         <v>31030</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:7">
@@ -1141,19 +1145,19 @@
         <v>31030</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/fxsj_mb/sjfxtb_b11_sysx.xlsx
+++ b/src/assets/fxsj_mb/sjfxtb_b11_sysx.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>年度</t>
+  </si>
+  <si>
+    <t>学期</t>
   </si>
   <si>
     <t>分校代码</t>
@@ -39,6 +42,9 @@
 实际完成人次</t>
   </si>
   <si>
+    <t>春</t>
+  </si>
+  <si>
     <t>杨浦分校</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>秋</t>
   </si>
   <si>
     <t>课程C</t>
@@ -75,8 +84,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -103,6 +112,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -110,20 +141,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -132,31 +149,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,6 +177,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -184,11 +199,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,47 +239,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,31 +264,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,13 +354,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,115 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,15 +473,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -484,6 +484,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,17 +536,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -561,6 +559,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -569,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,23 +1061,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="6.91666666666667" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="27.0833333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="1" max="2" width="6.91666666666667" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="27.0833333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="31" customHeight="1" spans="1:7">
+    <row r="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1084,80 +1093,92 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="1:7">
+    <row r="2" ht="25" customHeight="1" spans="1:8">
       <c r="A2" s="3">
         <v>2018</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
         <v>31030</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="1:7">
+    <row r="3" ht="25" customHeight="1" spans="1:8">
       <c r="A3" s="3">
         <v>2018</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
         <v>31030</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:7">
+    <row r="4" ht="25" customHeight="1" spans="1:8">
       <c r="A4" s="3">
         <v>2018</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3">
         <v>31030</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
